--- a/z_document/import_resource_template.xlsx
+++ b/z_document/import_resource_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BXT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BXT\Desktop\quanlykho\z_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47740EB-5DEB-4B75-B43C-298FE2AF0363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC44C2F-3CD0-4F41-AF7C-CA6FD22EEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="727">
   <si>
     <t>lang</t>
   </si>
@@ -1155,9 +1155,6 @@
     <t>Khách hàng</t>
   </si>
   <si>
-    <t>Consignee</t>
-  </si>
-  <si>
     <t>address_text</t>
   </si>
   <si>
@@ -1173,9 +1170,6 @@
     <t>fax_holder</t>
   </si>
   <si>
-    <t>Nhập Fax</t>
-  </si>
-  <si>
     <t>fax_text</t>
   </si>
   <si>
@@ -1203,27 +1197,6 @@
     <t>consignee_text</t>
   </si>
   <si>
-    <t>bên nhận</t>
-  </si>
-  <si>
-    <t>consignee_name_text</t>
-  </si>
-  <si>
-    <t>Tên bên nhận</t>
-  </si>
-  <si>
-    <t>consignee_name_holder</t>
-  </si>
-  <si>
-    <t>Nhập tên bên nhận</t>
-  </si>
-  <si>
-    <t>Bên nhận này đang được sử dụng trong hóa đơn nên không thể xóa. Vui lòng xóa bên nhận khỏi hóa đơn rồi thử lại.</t>
-  </si>
-  <si>
-    <t>Các bên nhận [{0}] đang được sử dụng trong hóa đơn nên không thể xóa. Vui lòng xóa các bên nhận trong hóa đơn rồi thử lại.</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -1275,27 +1248,9 @@
     <t>Nhập tên khách hàng</t>
   </si>
   <si>
-    <t>GroupProduct</t>
-  </si>
-  <si>
-    <t>groupProduct_text</t>
-  </si>
-  <si>
-    <t>nhóm hàng hóa</t>
-  </si>
-  <si>
     <t>category_name_text</t>
   </si>
   <si>
-    <t>Tên loại hàng hóa</t>
-  </si>
-  <si>
-    <t>category_name_holder</t>
-  </si>
-  <si>
-    <t>Nhập tên loại hàng hóa</t>
-  </si>
-  <si>
     <t>Tình trạng</t>
   </si>
   <si>
@@ -1308,12 +1263,6 @@
     <t>ingredient_id_holder</t>
   </si>
   <si>
-    <t>Nhập nguyên liệu</t>
-  </si>
-  <si>
-    <t>title_modal_statusProduct_add</t>
-  </si>
-  <si>
     <t>Chọn tình trạng</t>
   </si>
   <si>
@@ -1326,33 +1275,15 @@
     <t>name_jp_text</t>
   </si>
   <si>
-    <t>Tên nhóm hàng (JP)</t>
-  </si>
-  <si>
     <t>name_vn_text</t>
   </si>
   <si>
-    <t>Tên nhóm hàng (VN)</t>
-  </si>
-  <si>
     <t>name_vn_holder</t>
   </si>
   <si>
-    <t>Nhập tên nhóm hàng (VN)</t>
-  </si>
-  <si>
     <t>name_jp_holder</t>
   </si>
   <si>
-    <t>Nhập tên nhóm hàng (JP)</t>
-  </si>
-  <si>
-    <t>Nhóm hàng hóa này đang được sử dụng bởi hàng hóa nên không thể xóa. Vui lòng xóa nhóm hàng hóa khỏi hàng hóa rồi thử lại.</t>
-  </si>
-  <si>
-    <t>Các nhóm hàng hóa [{0]} đang được sử dụng bởi hàng hóa nên không thể xóa. Vui lòng xóa các nhóm này trong hàng hóa rồi thử lại.</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
@@ -1659,78 +1590,12 @@
     <t>ExportDetailError</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>chooseProduct</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn sản phẩm</t>
-  </si>
-  <si>
-    <t>weight_holder</t>
-  </si>
-  <si>
-    <t>weight_text</t>
-  </si>
-  <si>
-    <t>Trọng lượng(KG)</t>
-  </si>
-  <si>
-    <t>Sản phẩm {0} hiện chỉ còn {1} sản phẩm</t>
-  </si>
-  <si>
-    <t>quantityRequiredProduct</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số lượng sản phẩm {0}</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số lượng sản phẩm {0} lớn hơn 0</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số lượng sản phẩm là số nguyên dương</t>
-  </si>
-  <si>
-    <t>Kiện hàng này đang được thêm vào thùng nên không thể xóa. Vui lòng xóa kiện hàng khỏi thùng rồi thử lại.</t>
-  </si>
-  <si>
-    <t>Mã kiện hàng</t>
-  </si>
-  <si>
-    <t>product_already_exists_in_package</t>
-  </si>
-  <si>
-    <t>Sản phẩm đã tồn tại trong kiện hàng</t>
-  </si>
-  <si>
-    <t>product_not_in_selected_warehouse</t>
-  </si>
-  <si>
-    <t>Sản phẩm đã tồn tại ở {0}</t>
-  </si>
-  <si>
-    <t>customer_holder</t>
-  </si>
-  <si>
     <t>Chọn khách hàng</t>
   </si>
   <si>
-    <t>package_text</t>
-  </si>
-  <si>
-    <t>kiện hàng</t>
-  </si>
-  <si>
     <t>tracking_number_holder</t>
   </si>
   <si>
-    <t>Nhập mã kiện hàng</t>
-  </si>
-  <si>
-    <t>Nhập tên hoặc mã kiện hàng cần tìm</t>
-  </si>
-  <si>
     <t>Tên tiếng Nhật</t>
   </si>
   <si>
@@ -1752,9 +1617,6 @@
     <t>created_at_text</t>
   </si>
   <si>
-    <t>Ngày nhập kho</t>
-  </si>
-  <si>
     <t>Nhập tên tiếng Nhật</t>
   </si>
   <si>
@@ -1785,69 +1647,9 @@
     <t>Nhập ghi chú</t>
   </si>
   <si>
-    <t>Packing</t>
-  </si>
-  <si>
     <t>title_modal_carton_add</t>
   </si>
   <si>
-    <t>Chọn thùng</t>
-  </si>
-  <si>
-    <t>chooseCarton</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn thùng</t>
-  </si>
-  <si>
-    <t>list_carton_text</t>
-  </si>
-  <si>
-    <t>Danh sách thùng của đóng gói ({0} thùng)</t>
-  </si>
-  <si>
-    <t>PackingDeleteWarning</t>
-  </si>
-  <si>
-    <t>Đóng gói này đang được liên kết với hóa đơn nên không thể xóa. Vui lòng xóa liên kết với hóa đơn rồi thử lại.</t>
-  </si>
-  <si>
-    <t>Tổng giá (JPY)</t>
-  </si>
-  <si>
-    <t>packing_name_text</t>
-  </si>
-  <si>
-    <t>Tên đóng gói</t>
-  </si>
-  <si>
-    <t>đóng gói</t>
-  </si>
-  <si>
-    <t>Đóng gói [{0}] đang được liên kết với hóa đơn nên không thể xóa. Vui lòng xóa liên kết với hóa đơn rồi thử lại.</t>
-  </si>
-  <si>
-    <t>packing_name_holder</t>
-  </si>
-  <si>
-    <t>Nhập tên đóng gói</t>
-  </si>
-  <si>
-    <t>title_modal_packing_add</t>
-  </si>
-  <si>
-    <t>select_start_date</t>
-  </si>
-  <si>
-    <t>select_end_date</t>
-  </si>
-  <si>
-    <t>choosePacking</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn đóng gói</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -2191,6 +1993,219 @@
   </si>
   <si>
     <t>Mã kho đã tồn tại!</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>customer_info_holder</t>
+  </si>
+  <si>
+    <t>customer_info_text</t>
+  </si>
+  <si>
+    <t>order_no_holder</t>
+  </si>
+  <si>
+    <t>đơn hàng</t>
+  </si>
+  <si>
+    <t>order_text</t>
+  </si>
+  <si>
+    <t>Ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>order_date_text</t>
+  </si>
+  <si>
+    <t>Tổng số tiền</t>
+  </si>
+  <si>
+    <t>customer_company_text</t>
+  </si>
+  <si>
+    <t>order_no_text</t>
+  </si>
+  <si>
+    <t>Thêm đơn hàng</t>
+  </si>
+  <si>
+    <t>title_modal_order_add</t>
+  </si>
+  <si>
+    <t>Thêm thùng</t>
+  </si>
+  <si>
+    <t>notes_holder</t>
+  </si>
+  <si>
+    <t>notes_text</t>
+  </si>
+  <si>
+    <t>Tổng trọng lượng (kg)</t>
+  </si>
+  <si>
+    <t>Chọn mã thùng</t>
+  </si>
+  <si>
+    <t>Chọn mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Nhập tên danh mục sản phẩm cần tìm</t>
+  </si>
+  <si>
+    <t>category_search_holder</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Nhập tên danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>category_text</t>
+  </si>
+  <si>
+    <t>Nhập tên nguyên liệu</t>
+  </si>
+  <si>
+    <t>Danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Chọn danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>category_id_holder</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>warehouse_code_text</t>
+  </si>
+  <si>
+    <t>warehouse_code_holder</t>
+  </si>
+  <si>
+    <t>Nhập địa chỉ email</t>
+  </si>
+  <si>
+    <t>Nhập tên công ty</t>
+  </si>
+  <si>
+    <t>company_name_holder</t>
+  </si>
+  <si>
+    <t>Tên công ty</t>
+  </si>
+  <si>
+    <t>company_name_text</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>order_management</t>
+  </si>
+  <si>
+    <t>carton_management</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>category_management</t>
+  </si>
+  <si>
+    <t>Quản lý chức năng</t>
+  </si>
+  <si>
+    <t>function_management</t>
+  </si>
+  <si>
+    <t>Quản lý vai trò</t>
+  </si>
+  <si>
+    <t>role_management</t>
+  </si>
+  <si>
+    <t>Nhập tên nhóm chính</t>
+  </si>
+  <si>
+    <t>parent_cd_text</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Nhập phương thức</t>
+  </si>
+  <si>
+    <t>method_text</t>
+  </si>
+  <si>
+    <t>Nhập đường dẫn</t>
+  </si>
+  <si>
+    <t>url_text</t>
+  </si>
+  <si>
+    <t>Nhập tên chức năng</t>
+  </si>
+  <si>
+    <t>Nhập mã chức năng</t>
+  </si>
+  <si>
+    <t>function_code_text</t>
+  </si>
+  <si>
+    <t>Tên nhóm chính</t>
+  </si>
+  <si>
+    <t>Phương thức</t>
+  </si>
+  <si>
+    <t>Đường dẫn</t>
+  </si>
+  <si>
+    <t>Tên chức năng</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>function_text</t>
+  </si>
+  <si>
+    <t>Mã chức năng</t>
+  </si>
+  <si>
+    <t>Nhập mô tả vai trò</t>
+  </si>
+  <si>
+    <t>Nhập tên vai trò</t>
+  </si>
+  <si>
+    <t>Nhập mã vai trò</t>
+  </si>
+  <si>
+    <t>role_code_holder</t>
+  </si>
+  <si>
+    <t>Tên vai trò</t>
+  </si>
+  <si>
+    <t>Mã vai trò</t>
+  </si>
+  <si>
+    <t>role_code_text</t>
   </si>
 </sst>
 </file>
@@ -2545,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5848,13 +5863,13 @@
         <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5865,13 +5880,13 @@
         <v>6</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5882,13 +5897,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5899,13 +5914,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5916,13 +5931,13 @@
         <v>6</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>137</v>
+        <v>397</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>138</v>
+        <v>398</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5933,13 +5948,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5950,13 +5965,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>140</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5967,13 +5982,13 @@
         <v>6</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>159</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5984,13 +5999,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6001,13 +6016,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6018,13 +6033,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>392</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6035,13 +6050,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>394</v>
+        <v>140</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6052,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6069,13 +6084,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6086,13 +6101,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>308</v>
+        <v>423</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -6103,13 +6118,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6120,13 +6135,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6137,13 +6152,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -6154,13 +6169,13 @@
         <v>6</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6171,13 +6186,13 @@
         <v>6</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6188,13 +6203,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6205,13 +6220,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6222,13 +6237,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6239,13 +6254,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -6256,13 +6271,13 @@
         <v>6</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -6273,13 +6288,13 @@
         <v>6</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -6290,13 +6305,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>140</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6307,13 +6322,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6324,13 +6339,13 @@
         <v>6</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>419</v>
+        <v>156</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>420</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6341,13 +6356,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -6358,13 +6373,13 @@
         <v>6</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6375,13 +6390,13 @@
         <v>6</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6392,13 +6407,13 @@
         <v>6</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6409,13 +6424,13 @@
         <v>6</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6426,13 +6441,13 @@
         <v>6</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6443,13 +6458,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -6460,13 +6475,13 @@
         <v>6</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6477,13 +6492,13 @@
         <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6494,13 +6509,13 @@
         <v>6</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6511,13 +6526,13 @@
         <v>6</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -6528,13 +6543,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>308</v>
+        <v>389</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6545,13 +6560,13 @@
         <v>6</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -6562,13 +6577,13 @@
         <v>6</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6579,13 +6594,13 @@
         <v>6</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -6596,13 +6611,13 @@
         <v>6</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6613,13 +6628,13 @@
         <v>6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -6630,13 +6645,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6647,13 +6662,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6664,13 +6679,13 @@
         <v>6</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6681,13 +6696,13 @@
         <v>6</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -6698,13 +6713,13 @@
         <v>6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -6715,13 +6730,13 @@
         <v>6</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6732,13 +6747,13 @@
         <v>6</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -6749,13 +6764,13 @@
         <v>6</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6766,13 +6781,13 @@
         <v>6</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6783,13 +6798,13 @@
         <v>6</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6800,13 +6815,13 @@
         <v>6</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -6817,13 +6832,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>156</v>
+        <v>503</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>157</v>
+        <v>504</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6834,13 +6849,13 @@
         <v>6</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6851,13 +6866,13 @@
         <v>6</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -6868,13 +6883,13 @@
         <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6885,13 +6900,13 @@
         <v>6</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -6902,13 +6917,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6919,13 +6934,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -6936,13 +6951,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>486</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6953,13 +6968,13 @@
         <v>6</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6970,13 +6985,13 @@
         <v>6</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -6987,13 +7002,13 @@
         <v>6</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7004,13 +7019,13 @@
         <v>6</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7021,13 +7036,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>391</v>
+        <v>543</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7038,13 +7053,13 @@
         <v>6</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7055,13 +7070,13 @@
         <v>6</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -7072,13 +7087,13 @@
         <v>6</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7089,13 +7104,13 @@
         <v>6</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -7106,13 +7121,13 @@
         <v>6</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7123,13 +7138,13 @@
         <v>6</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7140,13 +7155,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7157,13 +7172,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -7174,13 +7189,13 @@
         <v>6</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7191,13 +7206,13 @@
         <v>6</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -7208,13 +7223,13 @@
         <v>6</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -7225,13 +7240,13 @@
         <v>6</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -7242,13 +7257,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -7259,13 +7274,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7276,13 +7291,13 @@
         <v>6</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D278" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -7293,13 +7308,13 @@
         <v>6</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>40</v>
+        <v>418</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -7310,13 +7325,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>526</v>
+        <v>416</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7327,13 +7342,13 @@
         <v>6</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -7344,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7361,7 +7376,7 @@
         <v>6</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>532</v>
@@ -7378,13 +7393,13 @@
         <v>6</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>534</v>
+        <v>430</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -7395,13 +7410,13 @@
         <v>6</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -7412,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>536</v>
+        <v>156</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>537</v>
+        <v>408</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -7429,13 +7444,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -7446,13 +7461,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -7463,13 +7478,13 @@
         <v>6</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -7480,13 +7495,13 @@
         <v>6</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -7497,13 +7512,13 @@
         <v>6</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>372</v>
+        <v>566</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>373</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -7514,13 +7529,13 @@
         <v>6</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -7531,13 +7546,13 @@
         <v>6</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>547</v>
+        <v>423</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7548,13 +7563,13 @@
         <v>6</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -7565,13 +7580,13 @@
         <v>6</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>370</v>
+        <v>538</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -7582,13 +7597,13 @@
         <v>6</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -7599,13 +7614,13 @@
         <v>6</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>366</v>
+        <v>572</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -7616,13 +7631,13 @@
         <v>6</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>368</v>
+        <v>574</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -7633,13 +7648,13 @@
         <v>6</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>312</v>
+        <v>529</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7650,10 +7665,10 @@
         <v>6</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>556</v>
@@ -7667,13 +7682,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -7684,13 +7699,13 @@
         <v>6</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -7701,13 +7716,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>374</v>
+        <v>580</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>375</v>
+        <v>580</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -7718,13 +7733,13 @@
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>561</v>
+        <v>132</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>562</v>
+        <v>132</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -7735,13 +7750,13 @@
         <v>6</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -7752,13 +7767,13 @@
         <v>6</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -7769,13 +7784,13 @@
         <v>6</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>40</v>
+        <v>585</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -7786,13 +7801,13 @@
         <v>6</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>432</v>
+        <v>586</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -7803,13 +7818,13 @@
         <v>6</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>434</v>
+        <v>588</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -7820,13 +7835,13 @@
         <v>6</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -7837,13 +7852,13 @@
         <v>6</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -7854,13 +7869,13 @@
         <v>6</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -7871,13 +7886,13 @@
         <v>6</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>438</v>
+        <v>595</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -7888,13 +7903,13 @@
         <v>6</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>436</v>
+        <v>597</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -7905,13 +7920,13 @@
         <v>6</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -7922,13 +7937,13 @@
         <v>6</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -7939,13 +7954,13 @@
         <v>6</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>338</v>
+        <v>603</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -7956,13 +7971,13 @@
         <v>6</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -7973,13 +7988,13 @@
         <v>6</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -7990,13 +8005,13 @@
         <v>6</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -8007,13 +8022,13 @@
         <v>6</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>344</v>
+        <v>610</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>346</v>
+        <v>610</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -8024,13 +8039,13 @@
         <v>6</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -8041,13 +8056,13 @@
         <v>6</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -8058,13 +8073,13 @@
         <v>6</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>594</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -8075,13 +8090,13 @@
         <v>6</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -8092,13 +8107,13 @@
         <v>6</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -8109,13 +8124,13 @@
         <v>6</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>493</v>
+        <v>618</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -8126,13 +8141,13 @@
         <v>6</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>596</v>
+        <v>503</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -8143,13 +8158,13 @@
         <v>6</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -8160,13 +8175,13 @@
         <v>6</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>600</v>
+        <v>292</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -8177,13 +8192,13 @@
         <v>6</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>497</v>
+        <v>623</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -8194,13 +8209,13 @@
         <v>6</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>312</v>
+        <v>624</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -8211,13 +8226,13 @@
         <v>6</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -8228,13 +8243,13 @@
         <v>6</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -8245,13 +8260,13 @@
         <v>6</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -8262,13 +8277,13 @@
         <v>6</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -8279,13 +8294,13 @@
         <v>6</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -8296,13 +8311,13 @@
         <v>6</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>610</v>
+        <v>86</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>610</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -8313,13 +8328,13 @@
         <v>6</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>611</v>
+        <v>88</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>611</v>
+        <v>89</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -8330,13 +8345,13 @@
         <v>6</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>612</v>
+        <v>64</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>612</v>
+        <v>65</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -8347,13 +8362,13 @@
         <v>6</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>613</v>
+        <v>90</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>613</v>
+        <v>91</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -8364,13 +8379,13 @@
         <v>6</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>614</v>
+        <v>62</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>614</v>
+        <v>62</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -8381,13 +8396,13 @@
         <v>6</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>615</v>
+        <v>92</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>615</v>
+        <v>93</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -8398,13 +8413,13 @@
         <v>6</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>616</v>
+        <v>86</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -8415,13 +8430,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>617</v>
+        <v>381</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>617</v>
+        <v>382</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -8432,13 +8447,13 @@
         <v>6</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>618</v>
+        <v>378</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>618</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -8449,13 +8464,13 @@
         <v>6</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>619</v>
+        <v>380</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -8466,13 +8481,13 @@
         <v>6</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>621</v>
+        <v>383</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>622</v>
+        <v>140</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -8483,13 +8498,13 @@
         <v>6</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>623</v>
+        <v>159</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -8500,13 +8515,13 @@
         <v>6</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>624</v>
+        <v>138</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -8517,13 +8532,13 @@
         <v>6</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>565</v>
+        <v>149</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>625</v>
+        <v>150</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -8534,13 +8549,13 @@
         <v>6</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>568</v>
+        <v>377</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -8551,13 +8566,13 @@
         <v>6</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -8568,13 +8583,13 @@
         <v>6</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>434</v>
+        <v>640</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -8585,13 +8600,13 @@
         <v>6</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>436</v>
+        <v>642</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -8602,13 +8617,13 @@
         <v>6</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>570</v>
+        <v>312</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -8619,13 +8634,13 @@
         <v>6</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>578</v>
+        <v>308</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -8636,13 +8651,13 @@
         <v>6</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>453</v>
+        <v>143</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>626</v>
+        <v>554</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -8653,13 +8668,13 @@
         <v>6</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>627</v>
+        <v>395</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -8670,13 +8685,13 @@
         <v>6</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>156</v>
+        <v>401</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>423</v>
+        <v>647</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -8687,13 +8702,13 @@
         <v>6</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>629</v>
+        <v>399</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>429</v>
+        <v>648</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -8704,13 +8719,13 @@
         <v>6</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>572</v>
+        <v>405</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>573</v>
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -8721,13 +8736,13 @@
         <v>6</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>580</v>
+        <v>376</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -8738,13 +8753,13 @@
         <v>6</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>630</v>
+        <v>378</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -8755,13 +8770,13 @@
         <v>6</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>632</v>
+        <v>383</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>633</v>
+        <v>140</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -8772,13 +8787,13 @@
         <v>6</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>634</v>
+        <v>384</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>635</v>
+        <v>159</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -8789,13 +8804,13 @@
         <v>6</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>446</v>
+        <v>143</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>425</v>
+        <v>554</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -8806,13 +8821,13 @@
         <v>6</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -8823,13 +8838,13 @@
         <v>6</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>584</v>
+        <v>40</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -8840,13 +8855,13 @@
         <v>6</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>636</v>
+        <v>312</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -8857,13 +8872,13 @@
         <v>6</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>638</v>
+        <v>397</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -8874,13 +8889,13 @@
         <v>6</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -8891,13 +8906,13 @@
         <v>6</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>574</v>
+        <v>399</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -8908,13 +8923,13 @@
         <v>6</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>622</v>
+        <v>453</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -8925,13 +8940,13 @@
         <v>6</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -8942,13 +8957,13 @@
         <v>6</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>644</v>
+        <v>405</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -8959,13 +8974,13 @@
         <v>6</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>646</v>
+        <v>480</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -8976,13 +8991,13 @@
         <v>6</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>132</v>
+        <v>718</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -8993,13 +9008,13 @@
         <v>6</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>647</v>
+        <v>712</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -9010,13 +9025,13 @@
         <v>6</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>650</v>
+        <v>717</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -9027,13 +9042,13 @@
         <v>6</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>651</v>
+        <v>399</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>514</v>
+        <v>716</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -9044,13 +9059,13 @@
         <v>6</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>653</v>
+        <v>715</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -9061,13 +9076,13 @@
         <v>6</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>654</v>
+        <v>714</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -9078,13 +9093,13 @@
         <v>6</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -9095,13 +9110,13 @@
         <v>6</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -9112,13 +9127,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>659</v>
+        <v>399</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -9129,13 +9144,13 @@
         <v>6</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -9146,13 +9161,13 @@
         <v>6</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -9163,13 +9178,13 @@
         <v>6</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>607</v>
+        <v>705</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -9180,13 +9195,13 @@
         <v>6</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -9197,13 +9212,13 @@
         <v>6</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -9214,13 +9229,13 @@
         <v>6</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -9231,13 +9246,13 @@
         <v>6</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>673</v>
+        <v>192</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -9248,13 +9263,13 @@
         <v>6</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -9265,13 +9280,13 @@
         <v>6</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -9282,13 +9297,13 @@
         <v>6</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>677</v>
+        <v>137</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>678</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -9299,13 +9314,13 @@
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>679</v>
+        <v>387</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>680</v>
+        <v>388</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -9316,13 +9331,13 @@
         <v>6</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>357</v>
+        <v>690</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -9333,13 +9348,13 @@
         <v>6</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>682</v>
+        <v>386</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -9350,13 +9365,13 @@
         <v>6</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -9367,13 +9382,13 @@
         <v>6</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -9384,13 +9399,13 @@
         <v>6</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>526</v>
+        <v>687</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -9401,13 +9416,13 @@
         <v>6</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -9418,13 +9433,13 @@
         <v>6</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -9435,13 +9450,13 @@
         <v>6</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>688</v>
+        <v>407</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -9452,13 +9467,13 @@
         <v>6</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -9469,13 +9484,13 @@
         <v>6</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>692</v>
+        <v>401</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -9486,13 +9501,13 @@
         <v>6</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>694</v>
+        <v>405</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -9503,13 +9518,13 @@
         <v>6</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>694</v>
+        <v>407</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -9520,13 +9535,13 @@
         <v>6</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>696</v>
+        <v>409</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>697</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -9537,13 +9552,13 @@
         <v>6</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>698</v>
+        <v>411</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -9554,13 +9569,13 @@
         <v>6</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>86</v>
+        <v>680</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>87</v>
+        <v>679</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -9571,13 +9586,13 @@
         <v>6</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>88</v>
+        <v>405</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>89</v>
+        <v>678</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -9588,13 +9603,13 @@
         <v>6</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>65</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -9605,13 +9620,13 @@
         <v>6</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>700</v>
+        <v>315</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>90</v>
+        <v>494</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>91</v>
+        <v>664</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -9622,13 +9637,13 @@
         <v>6</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>700</v>
+        <v>315</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>62</v>
+        <v>658</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>62</v>
+        <v>375</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -9639,13 +9654,13 @@
         <v>6</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>700</v>
+        <v>315</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>92</v>
+        <v>657</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>93</v>
+        <v>521</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -9656,13 +9671,13 @@
         <v>6</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>701</v>
+        <v>315</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>86</v>
+        <v>676</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -9673,13 +9688,13 @@
         <v>6</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>383</v>
+        <v>666</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -9690,13 +9705,13 @@
         <v>6</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -9707,13 +9722,13 @@
         <v>6</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>381</v>
+        <v>659</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -9724,13 +9739,13 @@
         <v>6</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>140</v>
+        <v>673</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -9741,13 +9756,13 @@
         <v>6</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>386</v>
+        <v>666</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>159</v>
+        <v>487</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -9758,13 +9773,13 @@
         <v>6</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -9775,13 +9790,13 @@
         <v>6</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>149</v>
+        <v>477</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>150</v>
+        <v>672</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -9792,13 +9807,13 @@
         <v>6</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>377</v>
+        <v>494</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>378</v>
+        <v>664</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -9809,13 +9824,13 @@
         <v>6</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>705</v>
+        <v>354</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -9826,13 +9841,13 @@
         <v>6</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>706</v>
+        <v>292</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -9843,13 +9858,13 @@
         <v>6</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>709</v>
+        <v>537</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -9860,13 +9875,13 @@
         <v>6</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>312</v>
+        <v>670</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>710</v>
+        <v>539</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -9877,13 +9892,13 @@
         <v>6</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>703</v>
+        <v>419</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>308</v>
+        <v>540</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -9894,13 +9909,13 @@
         <v>6</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>712</v>
+        <v>419</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>143</v>
+        <v>668</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -9911,13 +9926,13 @@
         <v>6</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>631</v>
+        <v>335</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -9928,13 +9943,13 @@
         <v>6</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>410</v>
+        <v>666</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>713</v>
+        <v>487</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -9945,13 +9960,13 @@
         <v>6</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>408</v>
+        <v>665</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>714</v>
+        <v>375</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -9962,13 +9977,13 @@
         <v>6</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>715</v>
+        <v>664</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -9979,13 +9994,13 @@
         <v>6</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>378</v>
+        <v>662</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -9996,13 +10011,13 @@
         <v>6</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>716</v>
+        <v>157</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -10013,13 +10028,13 @@
         <v>6</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>385</v>
+        <v>661</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>140</v>
+        <v>660</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -10030,13 +10045,13 @@
         <v>6</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>386</v>
+        <v>659</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>159</v>
+        <v>489</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -10047,13 +10062,13 @@
         <v>6</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>143</v>
+        <v>658</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>620</v>
+        <v>375</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -10064,13 +10079,13 @@
         <v>6</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>717</v>
+        <v>657</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>718</v>
+        <v>521</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -10081,13 +10096,13 @@
         <v>6</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>719</v>
+        <v>299</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -10098,30 +10113,13 @@
         <v>6</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>721</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/z_document/import_resource_template.xlsx
+++ b/z_document/import_resource_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BXT\Desktop\quanlykho\z_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC44C2F-3CD0-4F41-AF7C-CA6FD22EEF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062DBB13-268D-4A37-BBF5-B2F16728C740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="711">
   <si>
     <t>lang</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Mật khẩu phải chứa ít nhất một ký tự viết hoa.</t>
   </si>
   <si>
-    <t>Password recovery successful!</t>
-  </si>
-  <si>
     <t>UpdateError</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>confirmationCodeMessage</t>
   </si>
   <si>
-    <t>Hãy nhập mã xác nhận được gửi đến email.</t>
-  </si>
-  <si>
     <t>verification</t>
   </si>
   <si>
@@ -582,18 +576,9 @@
     <t>Quản lý người dùng</t>
   </si>
   <si>
-    <t>product_group_management</t>
-  </si>
-  <si>
-    <t>Quản lý nhóm hàng hóa</t>
-  </si>
-  <si>
     <t>product_management</t>
   </si>
   <si>
-    <t>Quản lý hàng hóa</t>
-  </si>
-  <si>
     <t>warehouse_management</t>
   </si>
   <si>
@@ -642,12 +627,6 @@
     <t>Quản lý khách hàng</t>
   </si>
   <si>
-    <t>package_management</t>
-  </si>
-  <si>
-    <t>Quản lý kiện hàng</t>
-  </si>
-  <si>
     <t>payment_methods_management</t>
   </si>
   <si>
@@ -657,21 +636,12 @@
     <t>ChangePassword</t>
   </si>
   <si>
-    <t>CurrentPassword</t>
-  </si>
-  <si>
     <t>Mật khẩu hiện tại</t>
   </si>
   <si>
-    <t>NewPassword</t>
-  </si>
-  <si>
     <t>Mật khẩu mới</t>
   </si>
   <si>
-    <t>NewPasswordConfirm</t>
-  </si>
-  <si>
     <t>Xác nhận mật khẩu</t>
   </si>
   <si>
@@ -681,45 +651,21 @@
     <t>Đổi mật khẩu</t>
   </si>
   <si>
-    <t>SaveChange</t>
-  </si>
-  <si>
     <t>Lưu thay đổi</t>
   </si>
   <si>
-    <t>ChangeSuccess</t>
-  </si>
-  <si>
     <t>Thay đổi mật khẩu thành công!</t>
   </si>
   <si>
     <t>Dashboard</t>
   </si>
   <si>
-    <t>total_user_tooltip</t>
-  </si>
-  <si>
-    <t>Tổng số lượng người dùng của kho</t>
-  </si>
-  <si>
-    <t>total_user_text</t>
-  </si>
-  <si>
-    <t>Tổng số lượng người dùng</t>
-  </si>
-  <si>
     <t>total_product_text</t>
   </si>
   <si>
-    <t>Tổng số lượng hàng hóa</t>
-  </si>
-  <si>
     <t>total_product_tooltip</t>
   </si>
   <si>
-    <t>Tổng số lượng hàng hóa của kho</t>
-  </si>
-  <si>
     <t>total_invoice_tooltip</t>
   </si>
   <si>
@@ -747,21 +693,6 @@
     <t>number_invoice_text</t>
   </si>
   <si>
-    <t>Số đơn</t>
-  </si>
-  <si>
-    <t>total_shipper_text</t>
-  </si>
-  <si>
-    <t>Tổng số lượng đơn vị vận chuyển</t>
-  </si>
-  <si>
-    <t>total_shipper_tooltip</t>
-  </si>
-  <si>
-    <t>Tổng số lượng đơn vị vận chuyển của kho</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -816,177 +747,24 @@
     <t>Quản lý phân quyền</t>
   </si>
   <si>
-    <t>branch_holder</t>
-  </si>
-  <si>
-    <t>Chọn chi nhánh</t>
-  </si>
-  <si>
-    <t>card_type_holder</t>
-  </si>
-  <si>
-    <t>Chọn loại thẻ</t>
-  </si>
-  <si>
-    <t>bank_name_holder</t>
-  </si>
-  <si>
-    <t>Chọn tên ngân hàng</t>
-  </si>
-  <si>
-    <t>btn_add_card_name</t>
-  </si>
-  <si>
-    <t>Thêm tên thẻ</t>
-  </si>
-  <si>
-    <t>btn_add_card_number</t>
-  </si>
-  <si>
-    <t>Thêm số thẻ</t>
-  </si>
-  <si>
-    <t>bank_name_text</t>
-  </si>
-  <si>
-    <t>tên ngân hàng</t>
-  </si>
-  <si>
-    <t>bank_branch_text</t>
-  </si>
-  <si>
-    <t>chi nhánh</t>
-  </si>
-  <si>
-    <t>card_type_text</t>
-  </si>
-  <si>
-    <t>loại thẻ</t>
-  </si>
-  <si>
-    <t>PaymentMethod</t>
-  </si>
-  <si>
-    <t>paymentMethod_text</t>
-  </si>
-  <si>
-    <t>phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>Tên ngân hàng</t>
-  </si>
-  <si>
-    <t>branch_text</t>
-  </si>
-  <si>
-    <t>Chi nhánh</t>
-  </si>
-  <si>
-    <t>Loại thẻ</t>
-  </si>
-  <si>
-    <t>card_number_text</t>
-  </si>
-  <si>
-    <t>Số thẻ</t>
-  </si>
-  <si>
-    <t>card_name_text</t>
-  </si>
-  <si>
-    <t>Tên thẻ</t>
-  </si>
-  <si>
-    <t>list_payment_method_text</t>
-  </si>
-  <si>
-    <t>Danh sách tài khoản ngân hàng ({0} tài khoản)</t>
-  </si>
-  <si>
     <t>payment_method_holder</t>
   </si>
   <si>
-    <t>Nhập phương thức thanh toán</t>
-  </si>
-  <si>
-    <t>bank_account_id_text</t>
-  </si>
-  <si>
-    <t>Tài khoản ngân hàng</t>
-  </si>
-  <si>
-    <t>btn_add_bank_account</t>
-  </si>
-  <si>
-    <t>Thêm tài khoản ngân hàng</t>
-  </si>
-  <si>
     <t>payment_method_text</t>
   </si>
   <si>
     <t>Phương thức thanh toán</t>
   </si>
   <si>
-    <t>bankAccount_text</t>
-  </si>
-  <si>
-    <t>tài khoản ngân hàng</t>
-  </si>
-  <si>
-    <t>Nhập loại thẻ</t>
-  </si>
-  <si>
-    <t>card_number_holder</t>
-  </si>
-  <si>
-    <t>Nhập số thẻ</t>
-  </si>
-  <si>
-    <t>card_name_holder</t>
-  </si>
-  <si>
-    <t>Nhập tên thẻ</t>
-  </si>
-  <si>
-    <t>Nhập tên ngân hàng</t>
-  </si>
-  <si>
     <t>DeleteListWarning</t>
   </si>
   <si>
-    <t>Các phương thức thanh toán [{0}] đang được sử dụng bởi hàng hóa nên không thể xóa. Vui lòng xóa các phương thức thanh toán này trong hàng hóa rồi thử lại.</t>
-  </si>
-  <si>
-    <t>DeleteWarningBank</t>
-  </si>
-  <si>
-    <t>Tài khoản ngân hàng này đang được sử dụng bởi hàng hóa nên không thể xóa. Vui lòng xóa tài khoản này trong hàng hóa rồi thử lại.</t>
-  </si>
-  <si>
     <t>DeleteWarning</t>
   </si>
   <si>
-    <t>Phương thức thanh toán này đang được sử dụng bởi hàng hóa nên không thể xóa. Vui lòng xóa phương thức thanh toán khỏi hàng hóa rồi thử lại</t>
-  </si>
-  <si>
-    <t>Nhập chi nhánh</t>
-  </si>
-  <si>
     <t>Carton</t>
   </si>
   <si>
-    <t>package_already_exists_in_carton</t>
-  </si>
-  <si>
-    <t>Kiện hàng đã tồn tại trong thùng</t>
-  </si>
-  <si>
-    <t>package_not_in_selected_warehouse</t>
-  </si>
-  <si>
-    <t>Kiện hàng không tồn tại ở kho đang chọn</t>
-  </si>
-  <si>
     <t>carton_text</t>
   </si>
   <si>
@@ -1092,57 +870,21 @@
     <t>Thể tích (m3)</t>
   </si>
   <si>
-    <t>item_no_text</t>
-  </si>
-  <si>
-    <t>Item No.</t>
-  </si>
-  <si>
     <t>Không tìm thấy sản phẩm!</t>
   </si>
   <si>
     <t>Nhập mã thùng cần tìm</t>
   </si>
   <si>
-    <t>Thùng này đang được sử dụng ở đóng gói nên không thể xóa. Vui lòng xóa thùng trong đóng gói rồi thử lại.</t>
-  </si>
-  <si>
-    <t>choosePackage</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn kiện hàng</t>
-  </si>
-  <si>
-    <t>group_product_search_holder</t>
-  </si>
-  <si>
-    <t>Nhập tên nhóm hàng hóa</t>
-  </si>
-  <si>
-    <t>quantityRequiredPackage</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số lượng kiện hàng {0}</t>
-  </si>
-  <si>
     <t>quantityGreaterThanZeroRequired</t>
   </si>
   <si>
-    <t>Vui lòng nhập số lượng kiện hàng {0} lớn hơn 0</t>
-  </si>
-  <si>
     <t>positive_integer_required</t>
   </si>
   <si>
-    <t>Vui lòng nhập số lượng kiện hàng là số nguyên dương</t>
-  </si>
-  <si>
     <t>low_stock_warning</t>
   </si>
   <si>
-    <t>Kiện hàng {0} hiện chỉ còn {1} kiện hàng</t>
-  </si>
-  <si>
     <t>quantityValidation</t>
   </si>
   <si>
@@ -1221,9 +963,6 @@
     <t>DoublicateCode</t>
   </si>
   <si>
-    <t>Mã khách hàng đã tồn tại</t>
-  </si>
-  <si>
     <t>name_text</t>
   </si>
   <si>
@@ -1272,81 +1011,30 @@
     <t>Thêm nguyên liệu</t>
   </si>
   <si>
-    <t>name_jp_text</t>
-  </si>
-  <si>
-    <t>name_vn_text</t>
-  </si>
-  <si>
-    <t>name_vn_holder</t>
-  </si>
-  <si>
-    <t>name_jp_holder</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>jancode_text</t>
-  </si>
-  <si>
-    <t>JAN code</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
     <t>ingredient_text</t>
   </si>
   <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
     <t>image_text</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Item Name VN</t>
-  </si>
-  <si>
-    <t>tracking_number_text</t>
-  </si>
-  <si>
-    <t>Tracking Number</t>
-  </si>
-  <si>
     <t>price_unit_text</t>
   </si>
   <si>
     <t>Price Unit</t>
   </si>
   <si>
-    <t>port_of_loading_holder</t>
-  </si>
-  <si>
-    <t>Nhập cảng xuất phát</t>
-  </si>
-  <si>
     <t>invoice_date_text</t>
   </si>
   <si>
     <t>Ngày tạo</t>
   </si>
   <si>
-    <t>port_of_loading_text</t>
-  </si>
-  <si>
-    <t>Cảng xuất phát</t>
-  </si>
-  <si>
-    <t>port_of_discharge_text</t>
-  </si>
-  <si>
-    <t>Cảng dừng chân</t>
-  </si>
-  <si>
     <t>shipped_per_text</t>
   </si>
   <si>
@@ -1359,24 +1047,6 @@
     <t>Ngày vận chuyển</t>
   </si>
   <si>
-    <t>container_no_text</t>
-  </si>
-  <si>
-    <t>Mã container</t>
-  </si>
-  <si>
-    <t>seal_no_text</t>
-  </si>
-  <si>
-    <t>Số niêm phong</t>
-  </si>
-  <si>
-    <t>terms_of_payment_text</t>
-  </si>
-  <si>
-    <t>Điều khoản thanh toán</t>
-  </si>
-  <si>
     <t>invoice_text</t>
   </si>
   <si>
@@ -1389,18 +1059,6 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>port_of_discharge_holder</t>
-  </si>
-  <si>
-    <t>Nhập cảng dừng chân</t>
-  </si>
-  <si>
-    <t>terms_of_payment_holder</t>
-  </si>
-  <si>
-    <t>Chọn điều khoản thanh toán</t>
-  </si>
-  <si>
     <t>shipped_per_holder</t>
   </si>
   <si>
@@ -1413,30 +1071,12 @@
     <t>Chọn ngày vận chuyển</t>
   </si>
   <si>
-    <t>container_no_holder</t>
-  </si>
-  <si>
-    <t>Nhập mã container</t>
-  </si>
-  <si>
-    <t>seal_no_holder</t>
-  </si>
-  <si>
-    <t>Nhập số niêm phong</t>
-  </si>
-  <si>
     <t>shipper_holder</t>
   </si>
   <si>
     <t>Chọn đơn vị vận chuyển</t>
   </si>
   <si>
-    <t>consignee_holder</t>
-  </si>
-  <si>
-    <t>Chọn bên nhận</t>
-  </si>
-  <si>
     <t>packing_text</t>
   </si>
   <si>
@@ -1446,12 +1086,6 @@
     <t>Bên nhận</t>
   </si>
   <si>
-    <t>packing_holder</t>
-  </si>
-  <si>
-    <t>Chọn đóng gói</t>
-  </si>
-  <si>
     <t>shipper_text</t>
   </si>
   <si>
@@ -1491,9 +1125,6 @@
     <t>Mã đơn hàng</t>
   </si>
   <si>
-    <t>invoice_no_holder</t>
-  </si>
-  <si>
     <t>Nhập mã đơn hàng</t>
   </si>
   <si>
@@ -1554,18 +1185,9 @@
     <t>Chọn ngày kết thúc</t>
   </si>
   <si>
-    <t>chooseInvoice</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn Hóa đơn</t>
-  </si>
-  <si>
     <t>btn_export_product</t>
   </si>
   <si>
-    <t>Xuất hàng hóa</t>
-  </si>
-  <si>
     <t>select_start_date_holder</t>
   </si>
   <si>
@@ -1593,15 +1215,6 @@
     <t>Chọn khách hàng</t>
   </si>
   <si>
-    <t>tracking_number_holder</t>
-  </si>
-  <si>
-    <t>Tên tiếng Nhật</t>
-  </si>
-  <si>
-    <t>Tên tiếng Việt</t>
-  </si>
-  <si>
     <t>origin_text</t>
   </si>
   <si>
@@ -1617,12 +1230,6 @@
     <t>created_at_text</t>
   </si>
   <si>
-    <t>Nhập tên tiếng Nhật</t>
-  </si>
-  <si>
-    <t>Nhập tên tiếng Việt</t>
-  </si>
-  <si>
     <t>origin_holder</t>
   </si>
   <si>
@@ -1653,60 +1260,15 @@
     <t>Product</t>
   </si>
   <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>tracking_number</t>
-  </si>
-  <si>
-    <t>name_jp</t>
-  </si>
-  <si>
-    <t>name_vn</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>price_unit</t>
-  </si>
-  <si>
-    <t>ingredient</t>
-  </si>
-  <si>
-    <t>groupt_product</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>warehouse</t>
   </si>
   <si>
     <t>kho</t>
   </si>
   <si>
-    <t>jancode</t>
-  </si>
-  <si>
-    <t>Jancode</t>
-  </si>
-  <si>
     <t>Hình ảnh</t>
   </si>
   <si>
-    <t>Mã hàng hóa</t>
-  </si>
-  <si>
-    <t>Nhập mã hàng hóa</t>
-  </si>
-  <si>
     <t>Đơn giá (JPY)</t>
   </si>
   <si>
@@ -1731,36 +1293,12 @@
     <t>Chọn kho cho hàng hóa</t>
   </si>
   <si>
-    <t>group_product_id_holder</t>
-  </si>
-  <si>
-    <t>Chọn loại hàng</t>
-  </si>
-  <si>
     <t>product_text</t>
   </si>
   <si>
-    <t>hàng hóa</t>
-  </si>
-  <si>
-    <t>group_product_name_text</t>
-  </si>
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>jancode_holder</t>
-  </si>
-  <si>
-    <t>Nhập Jancode</t>
-  </si>
-  <si>
     <t>Ngày nhập hàng</t>
   </si>
   <si>
-    <t>groupt_product_name_text</t>
-  </si>
-  <si>
     <t>none_image</t>
   </si>
   <si>
@@ -1791,9 +1329,6 @@
     <t>Chọn nguyên liệu</t>
   </si>
   <si>
-    <t>group_product_id_text</t>
-  </si>
-  <si>
     <t>old_image_text</t>
   </si>
   <si>
@@ -1818,12 +1353,6 @@
     <t>Giá trị các cột của các hàng kế nhau không được trùng nhau.</t>
   </si>
   <si>
-    <t>DuplicateTrackingNumber</t>
-  </si>
-  <si>
-    <t>Mã tracking đã tồn tại!</t>
-  </si>
-  <si>
     <t>ExportError</t>
   </si>
   <si>
@@ -1839,57 +1368,18 @@
     <t>File</t>
   </si>
   <si>
-    <t>purchase_link_text</t>
-  </si>
-  <si>
-    <t>Đường dẫn mua hàng</t>
-  </si>
-  <si>
-    <t>purchase_link_holder</t>
-  </si>
-  <si>
-    <t>Nhập đường dẫn mua hàng</t>
-  </si>
-  <si>
-    <t>link_text</t>
-  </si>
-  <si>
-    <t>Link mua hàng</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>none_jancode_trackingNumber</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập mã hàng hóa hoặc Jancode</t>
-  </si>
-  <si>
-    <t>DuplicateJancode</t>
-  </si>
-  <si>
-    <t>Jancode đã tồn tại!</t>
-  </si>
-  <si>
     <t>ProductNotFound</t>
   </si>
   <si>
     <t>Nhập tên hoặc mã hàng hóa cần tìm</t>
   </si>
   <si>
-    <t>Hàng hóa [{0}] đã được thêm vào thùng nên không thể xóa. Vui lòng xóa hàng hóa khỏi thùng rồi thử lại,</t>
-  </si>
-  <si>
     <t>FileNotFound</t>
   </si>
   <si>
     <t>Không tìm thấy file.</t>
   </si>
   <si>
-    <t>Hàng hóa đang được thêm vào kiện hàng nên không thể xóa. Vui lòng xóa hàng hóa khỏi kiện hàng và thử lại.</t>
-  </si>
-  <si>
     <t>Chọn phương thức thanh toán</t>
   </si>
   <si>
@@ -1923,12 +1413,6 @@
     <t>Nhập mã sản phẩm</t>
   </si>
   <si>
-    <t>bank_account_holder</t>
-  </si>
-  <si>
-    <t>Chọn tài khoản ngân hàng</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -2136,9 +1620,6 @@
     <t>role_management</t>
   </si>
   <si>
-    <t>Nhập tên nhóm chính</t>
-  </si>
-  <si>
     <t>parent_cd_text</t>
   </si>
   <si>
@@ -2166,9 +1647,6 @@
     <t>function_code_text</t>
   </si>
   <si>
-    <t>Tên nhóm chính</t>
-  </si>
-  <si>
     <t>Phương thức</t>
   </si>
   <si>
@@ -2206,6 +1684,480 @@
   </si>
   <si>
     <t>role_code_text</t>
+  </si>
+  <si>
+    <t>LogAction</t>
+  </si>
+  <si>
+    <t>api/Order/get-order-no</t>
+  </si>
+  <si>
+    <t>Hãy nhập mã xác nhận được gửi đến email</t>
+  </si>
+  <si>
+    <t>total_customer_tooltip</t>
+  </si>
+  <si>
+    <t>Tổng số lượng khách hàng</t>
+  </si>
+  <si>
+    <t>total_customer_text</t>
+  </si>
+  <si>
+    <t>current_password</t>
+  </si>
+  <si>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>save_change</t>
+  </si>
+  <si>
+    <t>change_succes</t>
+  </si>
+  <si>
+    <t>confirm_password</t>
+  </si>
+  <si>
+    <t>ForgotPassword</t>
+  </si>
+  <si>
+    <t>CodeSuccess</t>
+  </si>
+  <si>
+    <t>Tổng số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Tổng số lượng sản phẩm của kho</t>
+  </si>
+  <si>
+    <t>Danh mục sản phẩm này đang được sử dụng bởi sản phẩm nên không thể xóa. Vui lòng xóa danh mục sản phẩm khỏi sản phẩm rồi thử lại.</t>
+  </si>
+  <si>
+    <t>Khách hàng này đang được sử dụng trong đơn hàng hoặc thùng nên không thể xóa. Vui lòng xóa khách hàng khỏi đơn hàng và thùng rồi thử lại.</t>
+  </si>
+  <si>
+    <t>total_order_text</t>
+  </si>
+  <si>
+    <t>Tổng số lượng đơn hàng</t>
+  </si>
+  <si>
+    <t>total_order_tooltip</t>
+  </si>
+  <si>
+    <t>Tổng số lượng đơn hàng của kho</t>
+  </si>
+  <si>
+    <t>Số hoá đơn</t>
+  </si>
+  <si>
+    <t>Thêm quyền quản lý đơn hàng cho kho</t>
+  </si>
+  <si>
+    <t>Thùng này đang được sử dụng ở hoá đơn nên không thể xóa. Vui lòng xóa thùng trong hoá đơn rồi thử lại.</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm đã tồn tại</t>
+  </si>
+  <si>
+    <t>Mã thùng tồn tại</t>
+  </si>
+  <si>
+    <t>api/customer/delete/{id}</t>
+  </si>
+  <si>
+    <t>NotHavePermission</t>
+  </si>
+  <si>
+    <t>api/user/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/product/export-product</t>
+  </si>
+  <si>
+    <t>quantityRequiredProduct</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số lượng sản phẩm {0}</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số lượng sản phẩm {0} lớn hơn 0</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập số lượng sản phẩm là số nguyên dương</t>
+  </si>
+  <si>
+    <t>Sản phẩm {0} hiện chỉ còn {1} sản phẩm</t>
+  </si>
+  <si>
+    <t>api/shipper/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/Category/delete/{id}</t>
+  </si>
+  <si>
+    <t>Vai trò này đang được sử dụng ở người dùn nên không thể xóa. Vui lòng xoá vai trò trong người dùng rồi thử lại.</t>
+  </si>
+  <si>
+    <t>Bạn không có quyền thực hiện thao tác này.</t>
+  </si>
+  <si>
+    <t>number_order_text</t>
+  </si>
+  <si>
+    <t>Số đơn hàng</t>
+  </si>
+  <si>
+    <t>order_statistical_text</t>
+  </si>
+  <si>
+    <t>Biểu đồ thống kê đơn hàng theo kho</t>
+  </si>
+  <si>
+    <t>Nhập nguyên liệu</t>
+  </si>
+  <si>
+    <t>title_modal_statusProduct_add</t>
+  </si>
+  <si>
+    <t>total_payment_text</t>
+  </si>
+  <si>
+    <t>Tổng tiền sau thuế (JPY)</t>
+  </si>
+  <si>
+    <t>edit_text</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hoá đơn</t>
+  </si>
+  <si>
+    <t>add_new_text</t>
+  </si>
+  <si>
+    <t>Thêm mới hoá đơn</t>
+  </si>
+  <si>
+    <t>vai trò</t>
+  </si>
+  <si>
+    <t>Mã hoá đơn</t>
+  </si>
+  <si>
+    <t>detail_text</t>
+  </si>
+  <si>
+    <t>Chi tiết hoá đơn</t>
+  </si>
+  <si>
+    <t>Tên danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Các danh mục hàng hóa [{0]} đang được sử dụng bởi sản phẩm nên không thể xóa. Vui lòng xóa các danh mục này trong sản phẩm rồi thử lại.</t>
+  </si>
+  <si>
+    <t>Xuất sản phẩm</t>
+  </si>
+  <si>
+    <t>Đơn hàng này đang được sử dụng ở hoá đơn nên không thể xóa. Vui lòng xóa đơn hàng trong hoá đơn rồi thử lại.</t>
+  </si>
+  <si>
+    <t>api/warehouse/delete/{id}</t>
+  </si>
+  <si>
+    <t>Kho quản lý</t>
+  </si>
+  <si>
+    <t>sản phẩm</t>
+  </si>
+  <si>
+    <t>api/role/delete/{id}</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Sản phẩm [{0}] đã được thêm vào thùng nên không thể xóa. Vui lòng xóa hàng hóa khỏi thùng rồi thử lại,</t>
+  </si>
+  <si>
+    <t>Sản phẩm đang được thêm vào thùng nên không thể xóa. Vui lòng xóa sản phẩm khỏi thùng và thử lại.</t>
+  </si>
+  <si>
+    <t>api/warehouse/create</t>
+  </si>
+  <si>
+    <t>api/warehouse</t>
+  </si>
+  <si>
+    <t>api/Category/create</t>
+  </si>
+  <si>
+    <t>api/Category</t>
+  </si>
+  <si>
+    <t>api/product/create</t>
+  </si>
+  <si>
+    <t>api/product</t>
+  </si>
+  <si>
+    <t>api/customer/create</t>
+  </si>
+  <si>
+    <t>api/customer</t>
+  </si>
+  <si>
+    <t>api/Carton/create</t>
+  </si>
+  <si>
+    <t>api/Carton</t>
+  </si>
+  <si>
+    <t>api/Carton/update/{id}</t>
+  </si>
+  <si>
+    <t>api/Carton/{id}</t>
+  </si>
+  <si>
+    <t>api/product/update/{id}</t>
+  </si>
+  <si>
+    <t>api/Carton/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/product/export-excel</t>
+  </si>
+  <si>
+    <t>api/Order/create</t>
+  </si>
+  <si>
+    <t>api/Order/update/{id}</t>
+  </si>
+  <si>
+    <t>api/shipper/create</t>
+  </si>
+  <si>
+    <t>api/Invoice/create</t>
+  </si>
+  <si>
+    <t>api/paymentMethod/create</t>
+  </si>
+  <si>
+    <t>api/Invoice/export-invoice</t>
+  </si>
+  <si>
+    <t>api/Invoice</t>
+  </si>
+  <si>
+    <t>api/product/import-product</t>
+  </si>
+  <si>
+    <t>api/function/import-function</t>
+  </si>
+  <si>
+    <t>api/role/create</t>
+  </si>
+  <si>
+    <t>api/role/{id}</t>
+  </si>
+  <si>
+    <t>api/role</t>
+  </si>
+  <si>
+    <t>api/user/create</t>
+  </si>
+  <si>
+    <t>I_001</t>
+  </si>
+  <si>
+    <t>api/user</t>
+  </si>
+  <si>
+    <t>api/user/{id}</t>
+  </si>
+  <si>
+    <t>api/function</t>
+  </si>
+  <si>
+    <t>api/function/{id}</t>
+  </si>
+  <si>
+    <t>api/shipper</t>
+  </si>
+  <si>
+    <t>api/shipper/{id}</t>
+  </si>
+  <si>
+    <t>api/function/update/{id}</t>
+  </si>
+  <si>
+    <t>api/function/create</t>
+  </si>
+  <si>
+    <t>api/function/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/Category/{id}</t>
+  </si>
+  <si>
+    <t>api/Category/update/{id}</t>
+  </si>
+  <si>
+    <t>api/product/{id}</t>
+  </si>
+  <si>
+    <t>danh mục hàng hóa</t>
+  </si>
+  <si>
+    <t>product_category_management</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục hàng hóa</t>
+  </si>
+  <si>
+    <t>Nhập tên danh mục hàng hóa</t>
+  </si>
+  <si>
+    <t>api/customer/{id}</t>
+  </si>
+  <si>
+    <t>api/warehouse/{id}</t>
+  </si>
+  <si>
+    <t>api/warehouse/update/{id}</t>
+  </si>
+  <si>
+    <t>api/Order</t>
+  </si>
+  <si>
+    <t>api/Order/{id}</t>
+  </si>
+  <si>
+    <t>api/Invoice/{id}</t>
+  </si>
+  <si>
+    <t>api/Invoice/export-invoice/{id}</t>
+  </si>
+  <si>
+    <t>api/shipper/update/{id}</t>
+  </si>
+  <si>
+    <t>api/customer/update/{id}</t>
+  </si>
+  <si>
+    <t>api/product/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/paymentMethod</t>
+  </si>
+  <si>
+    <t>api/Invoice/update/{id}</t>
+  </si>
+  <si>
+    <t>api/function/menu</t>
+  </si>
+  <si>
+    <t>api/role/update/{id}</t>
+  </si>
+  <si>
+    <t>api/user/update/{id}</t>
+  </si>
+  <si>
+    <t>function_code_holder</t>
+  </si>
+  <si>
+    <t>url_holder</t>
+  </si>
+  <si>
+    <t>method_holder</t>
+  </si>
+  <si>
+    <t>Mã nhóm chính</t>
+  </si>
+  <si>
+    <t>parent_cd_holder</t>
+  </si>
+  <si>
+    <t>Nhập mã nhóm chính</t>
+  </si>
+  <si>
+    <t>quyền</t>
+  </si>
+  <si>
+    <t>Thêm mới vai trò</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa vai trò</t>
+  </si>
+  <si>
+    <t>check_all_text</t>
+  </si>
+  <si>
+    <t>Chọn tất cả</t>
+  </si>
+  <si>
+    <t>view_list_text</t>
+  </si>
+  <si>
+    <t>Xem danh sách</t>
+  </si>
+  <si>
+    <t>view_detail_text</t>
+  </si>
+  <si>
+    <t>Xem chi tiết</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa</t>
+  </si>
+  <si>
+    <t>delete_text</t>
+  </si>
+  <si>
+    <t>Xoá</t>
+  </si>
+  <si>
+    <t>export_text</t>
+  </si>
+  <si>
+    <t>Xuất excel</t>
+  </si>
+  <si>
+    <t>import_text</t>
+  </si>
+  <si>
+    <t>Nhập excel</t>
+  </si>
+  <si>
+    <t>api/Order/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/Invoice/get-invoice-no</t>
+  </si>
+  <si>
+    <t>api/Invoice/delete/{id}</t>
+  </si>
+  <si>
+    <t>api/Order/get-not-in-invoice</t>
+  </si>
+  <si>
+    <t>api/Carton/get-not-in-invoice</t>
+  </si>
+  <si>
+    <t>api/product/getProductInventory</t>
+  </si>
+  <si>
+    <t>api/Invoice/statistical</t>
+  </si>
+  <si>
+    <t>api/Order/statistical</t>
+  </si>
+  <si>
+    <t>api/user/get-user</t>
   </si>
 </sst>
 </file>
@@ -2560,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,20 +2544,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2619,10 +2571,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2636,10 +2588,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,10 +2605,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2670,10 +2622,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,10 +2639,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2704,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2738,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2772,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2789,10 +2741,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2806,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2823,10 +2775,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2840,10 +2792,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2857,10 +2809,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2874,10 +2826,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2891,10 +2843,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2908,10 +2860,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2925,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -2942,10 +2894,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2959,10 +2911,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2976,10 +2928,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2993,10 +2945,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3010,10 +2962,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3027,10 +2979,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3044,10 +2996,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3061,10 +3013,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3078,10 +3030,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3095,10 +3047,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3112,10 +3064,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3129,10 +3081,10 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3146,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3163,10 +3115,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3180,10 +3132,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3197,10 +3149,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3214,10 +3166,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3231,10 +3183,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3248,10 +3200,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3265,10 +3217,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3282,10 +3234,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3299,10 +3251,10 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3316,10 +3268,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3333,10 +3285,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3350,10 +3302,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3367,10 +3319,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3384,10 +3336,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3401,10 +3353,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3415,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3432,13 +3384,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3449,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3466,13 +3418,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3483,13 +3435,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3500,13 +3452,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3517,13 +3469,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3534,13 +3486,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3551,13 +3503,13 @@
         <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3568,13 +3520,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3585,13 +3537,13 @@
         <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3602,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>124</v>
@@ -3619,13 +3571,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3636,13 +3588,13 @@
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3653,13 +3605,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3670,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>131</v>
@@ -3687,7 +3639,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>133</v>
@@ -3704,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>135</v>
@@ -3721,7 +3673,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>137</v>
@@ -3738,7 +3690,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>139</v>
@@ -3755,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>141</v>
@@ -3772,7 +3724,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>143</v>
@@ -3789,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>145</v>
@@ -3806,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>147</v>
@@ -3823,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>149</v>
@@ -3840,13 +3792,13 @@
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3857,13 +3809,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3874,7 +3826,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>154</v>
@@ -3891,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>156</v>
@@ -3908,13 +3860,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3925,13 +3877,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3942,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>160</v>
@@ -3959,13 +3911,13 @@
         <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,13 +3928,13 @@
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3993,13 +3945,13 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4010,13 +3962,13 @@
         <v>6</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4027,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>168</v>
@@ -4044,13 +3996,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4061,13 +4013,13 @@
         <v>6</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4078,10 +4030,10 @@
         <v>6</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>172</v>
@@ -4095,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>173</v>
@@ -4112,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>175</v>
@@ -4129,13 +4081,13 @@
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4146,7 +4098,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>181</v>
@@ -4163,13 +4115,13 @@
         <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>180</v>
+        <v>553</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>183</v>
+        <v>554</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>184</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4180,13 +4132,13 @@
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4197,13 +4149,13 @@
         <v>6</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -4214,13 +4166,13 @@
         <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -4231,13 +4183,13 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -4248,13 +4200,13 @@
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4265,13 +4217,13 @@
         <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -4282,13 +4234,13 @@
         <v>6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4299,13 +4251,13 @@
         <v>6</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4316,13 +4268,13 @@
         <v>6</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>202</v>
+        <v>555</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4333,13 +4285,13 @@
         <v>6</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4350,13 +4302,13 @@
         <v>6</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4367,13 +4319,13 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>207</v>
+        <v>556</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>208</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -4384,13 +4336,13 @@
         <v>6</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>210</v>
+        <v>558</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>211</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4401,13 +4353,13 @@
         <v>6</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>212</v>
+        <v>559</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4418,13 +4370,13 @@
         <v>6</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>214</v>
+        <v>560</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4435,13 +4387,13 @@
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>217</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4452,13 +4404,13 @@
         <v>6</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>218</v>
+        <v>562</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4469,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4486,13 +4438,13 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>223</v>
+        <v>564</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4503,13 +4455,13 @@
         <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4520,13 +4472,13 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4537,13 +4489,13 @@
         <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4554,13 +4506,13 @@
         <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4574,10 +4526,10 @@
         <v>222</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4591,10 +4543,10 @@
         <v>222</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4608,10 +4560,10 @@
         <v>222</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4625,10 +4577,10 @@
         <v>222</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4639,13 +4591,13 @@
         <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4656,13 +4608,13 @@
         <v>6</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4673,13 +4625,13 @@
         <v>6</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4690,13 +4642,13 @@
         <v>6</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4707,13 +4659,13 @@
         <v>6</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -4724,13 +4676,13 @@
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>245</v>
+        <v>565</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>252</v>
+        <v>566</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>252</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4741,13 +4693,13 @@
         <v>6</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>255</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -4758,13 +4710,13 @@
         <v>6</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>217</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4775,13 +4727,13 @@
         <v>6</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>253</v>
+        <v>505</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>217</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -4792,13 +4744,13 @@
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>259</v>
+        <v>570</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -4809,13 +4761,13 @@
         <v>6</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -4826,13 +4778,13 @@
         <v>6</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4843,13 +4795,13 @@
         <v>6</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>265</v>
+        <v>571</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>266</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -4860,13 +4812,13 @@
         <v>6</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>267</v>
+        <v>573</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>268</v>
+        <v>574</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -4877,13 +4829,13 @@
         <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>270</v>
+        <v>575</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -4894,13 +4846,13 @@
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -4911,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -4928,13 +4880,13 @@
         <v>6</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -4945,13 +4897,13 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -4962,13 +4914,13 @@
         <v>6</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4979,13 +4931,13 @@
         <v>6</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4996,13 +4948,13 @@
         <v>6</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5013,13 +4965,13 @@
         <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5030,13 +4982,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5047,13 +4999,13 @@
         <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -5064,13 +5016,13 @@
         <v>6</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -5081,13 +5033,13 @@
         <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -5098,13 +5050,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5115,13 +5067,13 @@
         <v>6</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -5132,13 +5084,13 @@
         <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -5149,13 +5101,13 @@
         <v>6</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -5166,13 +5118,13 @@
         <v>6</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -5183,13 +5135,13 @@
         <v>6</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -5200,13 +5152,13 @@
         <v>6</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>279</v>
+        <v>484</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>303</v>
+        <v>160</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>304</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5217,13 +5169,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -5234,13 +5186,13 @@
         <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -5251,13 +5203,13 @@
         <v>6</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>309</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -5268,13 +5220,13 @@
         <v>6</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>279</v>
+        <v>410</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>311</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5285,13 +5237,13 @@
         <v>6</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>313</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -5302,13 +5254,13 @@
         <v>6</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>263</v>
+        <v>580</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>314</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -5319,13 +5271,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>316</v>
+        <v>581</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>317</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5336,13 +5288,13 @@
         <v>6</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>318</v>
+        <v>582</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>319</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5353,13 +5305,13 @@
         <v>6</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>320</v>
+        <v>583</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>321</v>
+        <v>583</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5370,13 +5322,13 @@
         <v>6</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5387,13 +5339,13 @@
         <v>6</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -5404,13 +5356,13 @@
         <v>6</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5421,13 +5373,13 @@
         <v>6</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5438,13 +5390,13 @@
         <v>6</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5455,13 +5407,13 @@
         <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5472,13 +5424,13 @@
         <v>6</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5489,13 +5441,13 @@
         <v>6</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5506,13 +5458,13 @@
         <v>6</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5523,13 +5475,13 @@
         <v>6</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>341</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5540,13 +5492,13 @@
         <v>6</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>342</v>
+        <v>584</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>343</v>
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -5557,13 +5509,13 @@
         <v>6</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5574,13 +5526,13 @@
         <v>6</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>346</v>
+        <v>587</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5591,13 +5543,13 @@
         <v>6</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>348</v>
+        <v>588</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5608,13 +5560,13 @@
         <v>6</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5625,13 +5577,13 @@
         <v>6</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>351</v>
+        <v>589</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>352</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5642,13 +5594,13 @@
         <v>6</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>353</v>
+        <v>590</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>354</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5659,13 +5611,13 @@
         <v>6</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>315</v>
+        <v>463</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>355</v>
+        <v>244</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>356</v>
+        <v>591</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5676,13 +5628,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>94</v>
+        <v>581</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>357</v>
+        <v>592</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -5693,13 +5645,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -5710,13 +5662,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -5727,13 +5679,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5744,13 +5696,13 @@
         <v>6</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5761,13 +5713,13 @@
         <v>6</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5778,13 +5730,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>366</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>367</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5795,13 +5747,13 @@
         <v>6</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5812,13 +5764,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5829,13 +5781,13 @@
         <v>6</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5846,13 +5798,13 @@
         <v>6</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5863,13 +5815,13 @@
         <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5880,13 +5832,13 @@
         <v>6</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5897,13 +5849,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5914,13 +5866,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5931,13 +5883,13 @@
         <v>6</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5948,13 +5900,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5965,13 +5917,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5982,13 +5934,13 @@
         <v>6</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5999,13 +5951,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6016,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6033,13 +5985,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>159</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6050,13 +6002,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>383</v>
+        <v>593</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>140</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6067,13 +6019,13 @@
         <v>6</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>419</v>
+        <v>210</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>420</v>
+        <v>595</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>421</v>
+        <v>596</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6084,13 +6036,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6101,13 +6053,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -6118,13 +6070,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>426</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6135,13 +6087,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>416</v>
+        <v>598</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6152,13 +6104,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -6169,13 +6121,13 @@
         <v>6</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>431</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6186,13 +6138,13 @@
         <v>6</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>432</v>
+        <v>599</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>433</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6203,13 +6155,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>435</v>
+        <v>602</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6220,13 +6172,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>436</v>
+        <v>603</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>437</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6237,13 +6189,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>438</v>
+        <v>268</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>439</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6254,13 +6206,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>441</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -6271,13 +6223,13 @@
         <v>6</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>443</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -6288,13 +6240,13 @@
         <v>6</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>444</v>
+        <v>607</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>445</v>
+        <v>608</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -6305,13 +6257,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>447</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6322,13 +6274,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6339,13 +6291,13 @@
         <v>6</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>157</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6356,13 +6308,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -6373,13 +6325,13 @@
         <v>6</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>453</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6390,13 +6342,13 @@
         <v>6</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>455</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6407,13 +6359,13 @@
         <v>6</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>456</v>
+        <v>377</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6424,13 +6376,13 @@
         <v>6</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6441,13 +6393,13 @@
         <v>6</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>461</v>
+        <v>381</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6458,13 +6410,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>463</v>
+        <v>383</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -6475,13 +6427,13 @@
         <v>6</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>465</v>
+        <v>385</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6492,13 +6444,13 @@
         <v>6</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6509,13 +6461,13 @@
         <v>6</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6526,13 +6478,13 @@
         <v>6</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>471</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -6543,13 +6495,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6560,13 +6512,13 @@
         <v>6</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -6577,13 +6529,13 @@
         <v>6</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6594,13 +6546,13 @@
         <v>6</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>346</v>
+        <v>611</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -6611,13 +6563,13 @@
         <v>6</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>479</v>
+        <v>612</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6628,13 +6580,13 @@
         <v>6</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>480</v>
+        <v>613</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>481</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -6645,13 +6597,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>482</v>
+        <v>141</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>483</v>
+        <v>614</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6662,13 +6614,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>485</v>
+        <v>615</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6679,13 +6631,13 @@
         <v>6</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>486</v>
+        <v>616</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6696,13 +6648,13 @@
         <v>6</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>488</v>
+        <v>411</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>489</v>
+        <v>412</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -6713,13 +6665,13 @@
         <v>6</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>491</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -6730,13 +6682,13 @@
         <v>6</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>492</v>
+        <v>396</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>493</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6747,13 +6699,13 @@
         <v>6</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -6764,13 +6716,13 @@
         <v>6</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>496</v>
+        <v>332</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>497</v>
+        <v>414</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6781,13 +6733,13 @@
         <v>6</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>499</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6798,13 +6750,13 @@
         <v>6</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>500</v>
+        <v>154</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>501</v>
+        <v>321</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6815,13 +6767,13 @@
         <v>6</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>502</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -6832,13 +6784,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>504</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6849,13 +6801,13 @@
         <v>6</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>506</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6866,13 +6818,13 @@
         <v>6</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,13 +6835,13 @@
         <v>6</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>510</v>
+        <v>421</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6900,13 +6852,13 @@
         <v>6</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>511</v>
+        <v>329</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>512</v>
+        <v>323</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -6917,13 +6869,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6934,13 +6886,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>513</v>
+        <v>407</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -6951,13 +6903,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6968,13 +6920,13 @@
         <v>6</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6985,13 +6937,13 @@
         <v>6</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>519</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -7002,13 +6954,13 @@
         <v>6</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7019,13 +6971,13 @@
         <v>6</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>542</v>
+        <v>428</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7036,13 +6988,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>543</v>
+        <v>429</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>543</v>
+        <v>430</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7053,13 +7005,13 @@
         <v>6</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>544</v>
+        <v>431</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7070,13 +7022,13 @@
         <v>6</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>545</v>
+        <v>432</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>545</v>
+        <v>433</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -7087,13 +7039,13 @@
         <v>6</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>546</v>
+        <v>434</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>546</v>
+        <v>435</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7104,13 +7056,13 @@
         <v>6</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>547</v>
+        <v>437</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -7121,13 +7073,13 @@
         <v>6</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7138,13 +7090,13 @@
         <v>6</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>549</v>
+        <v>320</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7155,13 +7107,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>550</v>
+        <v>318</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7172,13 +7124,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -7189,13 +7141,13 @@
         <v>6</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>552</v>
+        <v>312</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>552</v>
+        <v>514</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7206,13 +7158,13 @@
         <v>6</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>553</v>
+        <v>318</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -7223,13 +7175,13 @@
         <v>6</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>555</v>
+        <v>314</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>556</v>
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -7240,13 +7192,13 @@
         <v>6</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -7257,13 +7209,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>558</v>
+        <v>439</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -7274,13 +7226,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>522</v>
+        <v>440</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>559</v>
+        <v>441</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7291,13 +7243,13 @@
         <v>6</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>523</v>
+        <v>443</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -7308,13 +7260,13 @@
         <v>6</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>530</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -7325,13 +7277,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>524</v>
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7342,13 +7294,13 @@
         <v>6</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>531</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -7359,13 +7311,13 @@
         <v>6</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>525</v>
+        <v>40</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>526</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7376,13 +7328,13 @@
         <v>6</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -7393,13 +7345,13 @@
         <v>6</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>560</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -7410,13 +7362,13 @@
         <v>6</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>561</v>
+        <v>240</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>562</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -7427,13 +7379,13 @@
         <v>6</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -7444,13 +7396,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>563</v>
+        <v>454</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -7461,13 +7413,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>527</v>
+        <v>456</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -7478,13 +7430,13 @@
         <v>6</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -7495,13 +7447,13 @@
         <v>6</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>564</v>
+        <v>460</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>565</v>
+        <v>461</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -7512,13 +7464,13 @@
         <v>6</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>566</v>
+        <v>85</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>567</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -7529,13 +7481,13 @@
         <v>6</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>568</v>
+        <v>87</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>569</v>
+        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -7546,13 +7498,13 @@
         <v>6</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>423</v>
+        <v>63</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>410</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7563,13 +7515,13 @@
         <v>6</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>536</v>
+        <v>89</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>537</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -7580,13 +7532,13 @@
         <v>6</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>538</v>
+        <v>61</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>539</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -7597,13 +7549,13 @@
         <v>6</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>570</v>
+        <v>91</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>571</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -7614,13 +7566,13 @@
         <v>6</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>541</v>
+        <v>463</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>572</v>
+        <v>85</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>573</v>
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -7631,13 +7583,13 @@
         <v>6</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>574</v>
+        <v>295</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>575</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -7648,13 +7600,13 @@
         <v>6</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>529</v>
+        <v>292</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>576</v>
+        <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7665,13 +7617,13 @@
         <v>6</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -7682,13 +7634,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>577</v>
+        <v>297</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>577</v>
+        <v>138</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -7699,13 +7651,13 @@
         <v>6</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>578</v>
+        <v>298</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>579</v>
+        <v>157</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -7716,13 +7668,13 @@
         <v>6</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>580</v>
+        <v>135</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>580</v>
+        <v>136</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -7733,13 +7685,13 @@
         <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -7750,13 +7702,13 @@
         <v>6</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>581</v>
+        <v>290</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>582</v>
+        <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -7767,13 +7719,13 @@
         <v>6</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>583</v>
+        <v>353</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>584</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -7784,13 +7736,13 @@
         <v>6</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>585</v>
+        <v>468</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -7801,13 +7753,13 @@
         <v>6</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>586</v>
+        <v>470</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>587</v>
+        <v>471</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -7818,13 +7770,13 @@
         <v>6</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>588</v>
+        <v>244</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>588</v>
+        <v>472</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -7835,13 +7787,13 @@
         <v>6</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>589</v>
+        <v>243</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>590</v>
+        <v>473</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -7852,13 +7804,13 @@
         <v>6</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>592</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -7869,13 +7821,13 @@
         <v>6</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>593</v>
+        <v>309</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>594</v>
+        <v>419</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -7886,13 +7838,13 @@
         <v>6</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>595</v>
+        <v>314</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>596</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -7903,13 +7855,13 @@
         <v>6</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>597</v>
+        <v>312</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>598</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -7920,13 +7872,13 @@
         <v>6</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>599</v>
+        <v>318</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>600</v>
+        <v>477</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -7937,13 +7889,13 @@
         <v>6</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>601</v>
+        <v>290</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>602</v>
+        <v>291</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -7954,13 +7906,13 @@
         <v>6</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>603</v>
+        <v>243</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -7971,13 +7923,13 @@
         <v>6</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>604</v>
+        <v>244</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -7988,13 +7940,13 @@
         <v>6</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>606</v>
+        <v>292</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -8005,13 +7957,13 @@
         <v>6</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>608</v>
+        <v>297</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>609</v>
+        <v>138</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -8022,13 +7974,13 @@
         <v>6</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>610</v>
+        <v>298</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>610</v>
+        <v>157</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -8039,13 +7991,13 @@
         <v>6</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>611</v>
+        <v>141</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -8056,13 +8008,13 @@
         <v>6</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>613</v>
+        <v>479</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>614</v>
+        <v>480</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -8073,13 +8025,13 @@
         <v>6</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>615</v>
+        <v>40</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -8090,13 +8042,13 @@
         <v>6</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>616</v>
+        <v>482</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -8107,13 +8059,13 @@
         <v>6</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>617</v>
+        <v>483</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -8124,13 +8076,13 @@
         <v>6</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -8141,13 +8093,13 @@
         <v>6</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>503</v>
+        <v>621</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>503</v>
+        <v>621</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -8158,13 +8110,13 @@
         <v>6</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>312</v>
+        <v>622</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -8175,13 +8127,13 @@
         <v>6</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>292</v>
+        <v>623</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -8192,13 +8144,13 @@
         <v>6</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -8209,10 +8161,10 @@
         <v>6</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>625</v>
@@ -8226,13 +8178,13 @@
         <v>6</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -8243,13 +8195,13 @@
         <v>6</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -8260,13 +8212,13 @@
         <v>6</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>628</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -8277,13 +8229,13 @@
         <v>6</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -8294,13 +8246,13 @@
         <v>6</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -8311,13 +8263,13 @@
         <v>6</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>86</v>
+        <v>631</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>87</v>
+        <v>631</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -8328,13 +8280,13 @@
         <v>6</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>88</v>
+        <v>632</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>89</v>
+        <v>632</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -8345,13 +8297,13 @@
         <v>6</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>64</v>
+        <v>633</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>65</v>
+        <v>633</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -8362,13 +8314,13 @@
         <v>6</v>
       </c>
       <c r="C341" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D341" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D341" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E341" s="2" t="s">
-        <v>91</v>
+        <v>634</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -8379,13 +8331,13 @@
         <v>6</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>634</v>
+        <v>410</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>62</v>
+        <v>617</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -8396,13 +8348,13 @@
         <v>6</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>92</v>
+        <v>635</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>93</v>
+        <v>635</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -8413,10 +8365,10 @@
         <v>6</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>86</v>
+        <v>636</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>636</v>
@@ -8430,13 +8382,13 @@
         <v>6</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D345" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D345" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="E345" s="2" t="s">
-        <v>382</v>
+        <v>637</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -8447,13 +8399,13 @@
         <v>6</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>378</v>
+        <v>638</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>379</v>
+        <v>638</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -8464,13 +8416,13 @@
         <v>6</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>380</v>
+        <v>639</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -8481,13 +8433,13 @@
         <v>6</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>383</v>
+        <v>640</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>140</v>
+        <v>640</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -8498,13 +8450,13 @@
         <v>6</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>384</v>
+        <v>641</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>159</v>
+        <v>641</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -8515,13 +8467,13 @@
         <v>6</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>137</v>
+        <v>642</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>138</v>
+        <v>642</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -8532,13 +8484,13 @@
         <v>6</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>149</v>
+        <v>643</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>150</v>
+        <v>643</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -8549,13 +8501,13 @@
         <v>6</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>376</v>
+        <v>644</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>377</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -8566,13 +8518,13 @@
         <v>6</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>475</v>
+        <v>645</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -8583,13 +8535,13 @@
         <v>6</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -8600,13 +8552,13 @@
         <v>6</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -8617,13 +8569,13 @@
         <v>6</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>637</v>
+        <v>222</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>312</v>
+        <v>648</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -8634,13 +8586,13 @@
         <v>6</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>308</v>
+        <v>649</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -8651,13 +8603,13 @@
         <v>6</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>143</v>
+        <v>650</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>554</v>
+        <v>650</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -8668,13 +8620,13 @@
         <v>6</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>395</v>
+        <v>651</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -8685,13 +8637,13 @@
         <v>6</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>401</v>
+        <v>652</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -8702,13 +8654,13 @@
         <v>6</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>399</v>
+        <v>653</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -8719,13 +8671,13 @@
         <v>6</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>405</v>
+        <v>654</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -8736,13 +8688,13 @@
         <v>6</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>376</v>
+        <v>655</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>377</v>
+        <v>655</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -8753,13 +8705,13 @@
         <v>6</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>378</v>
+        <v>656</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -8770,13 +8722,13 @@
         <v>6</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>140</v>
+        <v>657</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -8787,13 +8739,13 @@
         <v>6</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>384</v>
+        <v>658</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>159</v>
+        <v>658</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -8804,13 +8756,13 @@
         <v>6</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>143</v>
+        <v>659</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -8821,13 +8773,13 @@
         <v>6</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>646</v>
+        <v>553</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -8838,13 +8790,13 @@
         <v>6</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>646</v>
+        <v>505</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -8855,13 +8807,13 @@
         <v>6</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>646</v>
+        <v>178</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>312</v>
+        <v>662</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -8872,13 +8824,13 @@
         <v>6</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>646</v>
+        <v>245</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>397</v>
+        <v>504</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -8889,13 +8841,13 @@
         <v>6</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>725</v>
+        <v>665</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -8906,13 +8858,13 @@
         <v>6</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>399</v>
+        <v>666</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>724</v>
+        <v>666</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -8923,13 +8875,13 @@
         <v>6</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>452</v>
+        <v>667</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>453</v>
+        <v>667</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -8940,13 +8892,13 @@
         <v>6</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>723</v>
+        <v>668</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>722</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -8957,13 +8909,13 @@
         <v>6</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>405</v>
+        <v>669</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -8974,13 +8926,13 @@
         <v>6</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>480</v>
+        <v>670</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -8991,13 +8943,13 @@
         <v>6</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>155</v>
+        <v>671</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -9008,13 +8960,13 @@
         <v>6</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -9025,13 +8977,13 @@
         <v>6</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>718</v>
+        <v>673</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -9042,13 +8994,13 @@
         <v>6</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>399</v>
+        <v>674</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -9059,13 +9011,13 @@
         <v>6</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -9076,13 +9028,13 @@
         <v>6</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -9093,13 +9045,13 @@
         <v>6</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -9110,13 +9062,13 @@
         <v>6</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -9127,13 +9079,13 @@
         <v>6</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>705</v>
+        <v>553</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>399</v>
+        <v>679</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -9144,13 +9096,13 @@
         <v>6</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>709</v>
+        <v>552</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>708</v>
+        <v>551</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -9161,13 +9113,13 @@
         <v>6</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>707</v>
+        <v>312</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>706</v>
+        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -9178,13 +9130,13 @@
         <v>6</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>705</v>
+        <v>463</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>704</v>
+        <v>342</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>703</v>
+        <v>343</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -9195,13 +9147,13 @@
         <v>6</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>702</v>
+        <v>549</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>701</v>
+        <v>548</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -9212,13 +9164,13 @@
         <v>6</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>700</v>
+        <v>318</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>699</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -9229,13 +9181,13 @@
         <v>6</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>698</v>
+        <v>358</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>697</v>
+        <v>546</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -9246,13 +9198,13 @@
         <v>6</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>180</v>
+        <v>532</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>696</v>
+        <v>539</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>192</v>
+        <v>545</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -9263,13 +9215,13 @@
         <v>6</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>180</v>
+        <v>532</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>695</v>
+        <v>544</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>694</v>
+        <v>543</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -9280,13 +9232,13 @@
         <v>6</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>390</v>
+        <v>532</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>693</v>
+        <v>312</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>692</v>
+        <v>542</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -9297,13 +9249,13 @@
         <v>6</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>390</v>
+        <v>532</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>137</v>
+        <v>536</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>138</v>
+        <v>541</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -9314,13 +9266,13 @@
         <v>6</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>390</v>
+        <v>532</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>387</v>
+        <v>534</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>388</v>
+        <v>540</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -9331,13 +9283,13 @@
         <v>6</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>390</v>
+        <v>178</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>691</v>
+        <v>530</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>690</v>
+        <v>529</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -9348,13 +9300,13 @@
         <v>6</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>390</v>
+        <v>178</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>385</v>
+        <v>528</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>386</v>
+        <v>527</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -9365,13 +9317,13 @@
         <v>6</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>390</v>
+        <v>178</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>689</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -9382,13 +9334,13 @@
         <v>6</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>646</v>
+        <v>178</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>688</v>
+        <v>524</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>647</v>
+        <v>187</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -9399,13 +9351,13 @@
         <v>6</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>646</v>
+        <v>178</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>687</v>
+        <v>523</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -9416,13 +9368,13 @@
         <v>6</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>395</v>
+        <v>521</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>629</v>
+        <v>520</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -9433,13 +9385,13 @@
         <v>6</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>399</v>
+        <v>135</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>686</v>
+        <v>136</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -9450,13 +9402,13 @@
         <v>6</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>682</v>
+        <v>302</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -9467,13 +9419,13 @@
         <v>6</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>685</v>
+        <v>519</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>684</v>
+        <v>518</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -9484,13 +9436,13 @@
         <v>6</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>631</v>
+        <v>300</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -9501,13 +9453,13 @@
         <v>6</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>541</v>
+        <v>304</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>683</v>
+        <v>517</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -9518,13 +9470,13 @@
         <v>6</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>677</v>
+        <v>474</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>407</v>
+        <v>516</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>682</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -9535,13 +9487,13 @@
         <v>6</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>677</v>
+        <v>474</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -9552,13 +9504,13 @@
         <v>6</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>677</v>
+        <v>410</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>681</v>
+        <v>459</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -9569,13 +9521,13 @@
         <v>6</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>677</v>
+        <v>410</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>680</v>
+        <v>312</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>679</v>
+        <v>514</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -9586,13 +9538,13 @@
         <v>6</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>677</v>
+        <v>410</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>678</v>
+        <v>510</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -9603,13 +9555,13 @@
         <v>6</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>677</v>
+        <v>410</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>413</v>
+        <v>513</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>414</v>
+        <v>512</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -9620,13 +9572,13 @@
         <v>6</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>494</v>
+        <v>314</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>664</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -9637,13 +9589,13 @@
         <v>6</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>658</v>
+        <v>318</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>375</v>
+        <v>511</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -9654,13 +9606,13 @@
         <v>6</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>657</v>
+        <v>320</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -9671,13 +9623,13 @@
         <v>6</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>676</v>
+        <v>322</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>675</v>
+        <v>323</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -9688,13 +9640,13 @@
         <v>6</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>666</v>
+        <v>324</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -9705,13 +9657,13 @@
         <v>6</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>298</v>
+        <v>508</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>299</v>
+        <v>507</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -9722,13 +9674,13 @@
         <v>6</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>659</v>
+        <v>318</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>674</v>
+        <v>506</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -9739,13 +9691,13 @@
         <v>6</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>673</v>
+        <v>327</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -9756,13 +9708,13 @@
         <v>6</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -9773,13 +9725,13 @@
         <v>6</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>323</v>
+        <v>537</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -9790,13 +9742,13 @@
         <v>6</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>477</v>
+        <v>681</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>672</v>
+        <v>535</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -9807,13 +9759,13 @@
         <v>6</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>494</v>
+        <v>682</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>664</v>
+        <v>533</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -9824,13 +9776,13 @@
         <v>6</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>354</v>
+        <v>683</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -9841,13 +9793,13 @@
         <v>6</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>292</v>
+        <v>684</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -9858,13 +9810,13 @@
         <v>6</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>671</v>
+        <v>371</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -9875,13 +9827,13 @@
         <v>6</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>670</v>
+        <v>486</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>539</v>
+        <v>289</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -9892,13 +9844,13 @@
         <v>6</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>669</v>
+        <v>395</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -9909,13 +9861,13 @@
         <v>6</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>668</v>
+        <v>504</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>667</v>
+        <v>503</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -9926,13 +9878,13 @@
         <v>6</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>334</v>
+        <v>494</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -9943,13 +9895,13 @@
         <v>6</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>666</v>
+        <v>241</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>487</v>
+        <v>242</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -9960,13 +9912,13 @@
         <v>6</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>665</v>
+        <v>487</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>375</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -9977,13 +9929,13 @@
         <v>6</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>494</v>
+        <v>252</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>664</v>
+        <v>501</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -9994,13 +9946,13 @@
         <v>6</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>663</v>
+        <v>494</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>662</v>
+        <v>365</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -10011,13 +9963,13 @@
         <v>6</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -10028,13 +9980,13 @@
         <v>6</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>661</v>
+        <v>355</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>660</v>
+        <v>500</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -10045,13 +9997,13 @@
         <v>6</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -10062,13 +10014,13 @@
         <v>6</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>658</v>
+        <v>356</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -10079,13 +10031,13 @@
         <v>6</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>657</v>
+        <v>240</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>521</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -10096,13 +10048,13 @@
         <v>6</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>298</v>
+        <v>499</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -10113,13 +10065,591 @@
         <v>6</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>292</v>
+        <v>498</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>621</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" t="s">
+        <v>328</v>
+      </c>
+      <c r="D445" t="s">
+        <v>409</v>
+      </c>
+      <c r="E445" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446" t="s">
+        <v>328</v>
+      </c>
+      <c r="D446" t="s">
+        <v>496</v>
+      </c>
+      <c r="E446" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s">
+        <v>484</v>
+      </c>
+      <c r="D447" t="s">
+        <v>260</v>
+      </c>
+      <c r="E447" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" t="s">
+        <v>484</v>
+      </c>
+      <c r="D448" t="s">
+        <v>494</v>
+      </c>
+      <c r="E448" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" t="s">
+        <v>484</v>
+      </c>
+      <c r="D449" t="s">
+        <v>493</v>
+      </c>
+      <c r="E449" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" t="s">
+        <v>484</v>
+      </c>
+      <c r="D450" t="s">
+        <v>371</v>
+      </c>
+      <c r="E450" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" t="s">
+        <v>484</v>
+      </c>
+      <c r="D451" t="s">
+        <v>491</v>
+      </c>
+      <c r="E451" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" t="s">
+        <v>484</v>
+      </c>
+      <c r="D452" t="s">
+        <v>154</v>
+      </c>
+      <c r="E452" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453" t="s">
+        <v>484</v>
+      </c>
+      <c r="D453" t="s">
+        <v>489</v>
+      </c>
+      <c r="E453" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" t="s">
+        <v>484</v>
+      </c>
+      <c r="D454" t="s">
+        <v>487</v>
+      </c>
+      <c r="E454" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>484</v>
+      </c>
+      <c r="D455" t="s">
+        <v>486</v>
+      </c>
+      <c r="E455" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s">
+        <v>484</v>
+      </c>
+      <c r="D456" t="s">
+        <v>485</v>
+      </c>
+      <c r="E456" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457" t="s">
+        <v>484</v>
+      </c>
+      <c r="D457" t="s">
+        <v>241</v>
+      </c>
+      <c r="E457" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>484</v>
+      </c>
+      <c r="D458" t="s">
+        <v>240</v>
+      </c>
+      <c r="E458" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" t="s">
+        <v>463</v>
+      </c>
+      <c r="D459" t="s">
+        <v>544</v>
+      </c>
+      <c r="E459" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" t="s">
+        <v>463</v>
+      </c>
+      <c r="D460" t="s">
+        <v>603</v>
+      </c>
+      <c r="E460" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" t="s">
+        <v>463</v>
+      </c>
+      <c r="D461" t="s">
+        <v>601</v>
+      </c>
+      <c r="E461" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s">
+        <v>532</v>
+      </c>
+      <c r="D462" t="s">
+        <v>689</v>
+      </c>
+      <c r="E462" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" t="s">
+        <v>532</v>
+      </c>
+      <c r="D463" t="s">
+        <v>691</v>
+      </c>
+      <c r="E463" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s">
+        <v>532</v>
+      </c>
+      <c r="D464" t="s">
+        <v>693</v>
+      </c>
+      <c r="E464" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s">
+        <v>532</v>
+      </c>
+      <c r="D465" t="s">
+        <v>603</v>
+      </c>
+      <c r="E465" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" t="s">
+        <v>532</v>
+      </c>
+      <c r="D466" t="s">
+        <v>601</v>
+      </c>
+      <c r="E466" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" t="s">
+        <v>532</v>
+      </c>
+      <c r="D467" t="s">
+        <v>696</v>
+      </c>
+      <c r="E467" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" t="s">
+        <v>532</v>
+      </c>
+      <c r="D468" t="s">
+        <v>698</v>
+      </c>
+      <c r="E468" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469" t="s">
+        <v>532</v>
+      </c>
+      <c r="D469" t="s">
+        <v>700</v>
+      </c>
+      <c r="E469" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" t="s">
+        <v>553</v>
+      </c>
+      <c r="D470" t="s">
+        <v>702</v>
+      </c>
+      <c r="E470" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" t="s">
+        <v>553</v>
+      </c>
+      <c r="D471" t="s">
+        <v>703</v>
+      </c>
+      <c r="E471" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" t="s">
+        <v>553</v>
+      </c>
+      <c r="D472" t="s">
+        <v>704</v>
+      </c>
+      <c r="E472" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473" t="s">
+        <v>553</v>
+      </c>
+      <c r="D473" t="s">
+        <v>705</v>
+      </c>
+      <c r="E473" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474" t="s">
+        <v>553</v>
+      </c>
+      <c r="D474" t="s">
+        <v>706</v>
+      </c>
+      <c r="E474" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475" t="s">
+        <v>553</v>
+      </c>
+      <c r="D475" t="s">
+        <v>707</v>
+      </c>
+      <c r="E475" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" t="s">
+        <v>553</v>
+      </c>
+      <c r="D476" t="s">
+        <v>708</v>
+      </c>
+      <c r="E476" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477" t="s">
+        <v>553</v>
+      </c>
+      <c r="D477" t="s">
+        <v>709</v>
+      </c>
+      <c r="E477" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" t="s">
+        <v>553</v>
+      </c>
+      <c r="D478" t="s">
+        <v>710</v>
+      </c>
+      <c r="E478" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
